--- a/twitter_data/MediaAnalysisCharts.xlsx
+++ b/twitter_data/MediaAnalysisCharts.xlsx
@@ -56,13 +56,7 @@
     <t xml:space="preserve"> 42/136</t>
   </si>
   <si>
-    <t>Popular</t>
-  </si>
-  <si>
     <t>Percentage of Medias ___________________________________________</t>
-  </si>
-  <si>
-    <t>Unpopular</t>
   </si>
   <si>
     <t>All</t>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>Number of Tweets with Media (Photo or Video)</t>
+  </si>
+  <si>
+    <t>Baseline ( &lt; 5 RT )</t>
+  </si>
+  <si>
+    <t>Popular ( &gt;= 5 RT )</t>
   </si>
 </sst>
 </file>
@@ -409,33 +409,6 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>15.27%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
                       <a:t>17.12%</a:t>
                     </a:r>
                   </a:p>
@@ -511,19 +484,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$7:$K$7</c:f>
+              <c:f>Sheet1!$H$7:$J$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Popular</c:v>
+                  <c:v>Popular ( &gt;= 5 RT )</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Unpopular</c:v>
+                  <c:v>Baseline ( &lt; 5 RT )</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Zero</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
@@ -531,10 +501,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$8:$K$8</c:f>
+              <c:f>Sheet1!$H$8:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>42.0</c:v>
                 </c:pt>
@@ -542,9 +512,6 @@
                   <c:v>1473.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1165.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1515.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -669,33 +636,6 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>84.73%</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
                       <a:t>82.88%</a:t>
                     </a:r>
                   </a:p>
@@ -771,19 +711,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$7:$K$7</c:f>
+              <c:f>Sheet1!$H$7:$J$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Popular</c:v>
+                  <c:v>Popular ( &gt;= 5 RT )</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Unpopular</c:v>
+                  <c:v>Baseline ( &lt; 5 RT )</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Zero</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>All</c:v>
                 </c:pt>
               </c:strCache>
@@ -791,10 +728,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$9:$K$9</c:f>
+              <c:f>Sheet1!$H$9:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>73.0</c:v>
                 </c:pt>
@@ -802,9 +739,6 @@
                   <c:v>7262.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6465.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>7335.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -821,11 +755,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-2094162336"/>
-        <c:axId val="-2115083232"/>
+        <c:axId val="-2082829216"/>
+        <c:axId val="-2082828368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2094162336"/>
+        <c:axId val="-2082829216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,7 +802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115083232"/>
+        <c:crossAx val="-2082828368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -876,7 +810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115083232"/>
+        <c:axId val="-2082828368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094162336"/>
+        <c:crossAx val="-2082829216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1086,7 +1020,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$7</c:f>
+              <c:f>Sheet1!$J$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1222,7 +1156,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$8:$K$9</c:f>
+              <c:f>Sheet1!$J$8:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2868,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2880,7 +2814,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2897,7 +2831,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="M3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -2919,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -2945,16 +2879,16 @@
         <v>0.13410839999999999</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
         <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
       </c>
       <c r="M7" t="s">
         <v>4</v>
@@ -2962,10 +2896,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8">
         <v>42</v>
@@ -2974,16 +2908,16 @@
         <v>1473</v>
       </c>
       <c r="J8">
+        <v>1515</v>
+      </c>
+      <c r="L8">
         <v>1165</v>
-      </c>
-      <c r="K8">
-        <v>1515</v>
       </c>
       <c r="M8" t="s">
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -2991,11 +2925,11 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1"/>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>73</v>
@@ -3004,10 +2938,10 @@
         <v>7262</v>
       </c>
       <c r="J9">
+        <v>7335</v>
+      </c>
+      <c r="L9">
         <v>6465</v>
-      </c>
-      <c r="K9">
-        <v>7335</v>
       </c>
       <c r="M9" t="s">
         <v>3</v>
@@ -3024,7 +2958,7 @@
         <v>0.14763960000000001</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10">
         <v>115</v>
@@ -3033,13 +2967,13 @@
         <v>8735</v>
       </c>
       <c r="J10">
+        <v>8850</v>
+      </c>
+      <c r="L10">
         <v>7630</v>
       </c>
-      <c r="K10">
-        <v>8850</v>
-      </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -3047,7 +2981,7 @@
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1">
         <v>0.36521740000000003</v>
@@ -3056,16 +2990,16 @@
         <v>0.1686319</v>
       </c>
       <c r="J11" s="1">
+        <v>0.17118639999999999</v>
+      </c>
+      <c r="L11" s="1">
         <v>0.15268680000000001</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.17118639999999999</v>
       </c>
       <c r="M11" t="s">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -3121,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="13:16" x14ac:dyDescent="0.2">

--- a/twitter_data/MediaAnalysisCharts.xlsx
+++ b/twitter_data/MediaAnalysisCharts.xlsx
@@ -755,11 +755,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-2082829216"/>
-        <c:axId val="-2082828368"/>
+        <c:axId val="-2121581888"/>
+        <c:axId val="-2121578960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2082829216"/>
+        <c:axId val="-2121581888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082828368"/>
+        <c:crossAx val="-2121578960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -810,7 +810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082828368"/>
+        <c:axId val="-2121578960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082829216"/>
+        <c:crossAx val="-2121581888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1289,6 +1289,673 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentages</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Tweets with a Photo or Video</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Tweets with Media (Photo or Video)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>36.52%</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>16.86%</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$7:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Popular ( &gt;= 5 RT )</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baseline ( &lt; 5 RT )</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1473.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tweets without Media</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>63.48%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>83.14%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$7:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Popular ( &gt;= 5 RT )</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baseline ( &lt; 5 RT )</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7262.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2043402752"/>
+        <c:axId val="-2043124064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2043402752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2043124064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2043124064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2043402752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1369,6 +2036,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
   <cs:axisTitle>
@@ -2467,6 +3174,508 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2506,16 +3715,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2529,6 +3738,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2802,8 +4043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/twitter_data/MediaAnalysisCharts.xlsx
+++ b/twitter_data/MediaAnalysisCharts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="35320" windowHeight="19740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
                       <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
                         <a:effectLst/>
                       </a:rPr>
-                      <a:t>36.52%</a:t>
+                      <a:t>16.86%</a:t>
                     </a:r>
                     <a:r>
                       <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -377,7 +377,7 @@
                       <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
                         <a:effectLst/>
                       </a:rPr>
-                      <a:t>16.86%</a:t>
+                      <a:t>36.52%</a:t>
                     </a:r>
                     <a:r>
                       <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -488,10 +488,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Popular ( &gt;= 5 RT )</c:v>
+                  <c:v>Baseline ( &lt; 5 RT )</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Baseline ( &lt; 5 RT )</c:v>
+                  <c:v>Popular ( &gt;= 5 RT )</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>All</c:v>
@@ -506,10 +506,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>42.0</c:v>
+                  <c:v>1473.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1473.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1515.0</c:v>
@@ -582,7 +582,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>63.48%</a:t>
+                      <a:t>83.14%</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -609,7 +609,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>83.14%</a:t>
+                      <a:t>63.48%</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -715,10 +715,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Popular ( &gt;= 5 RT )</c:v>
+                  <c:v>Baseline ( &lt; 5 RT )</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Baseline ( &lt; 5 RT )</c:v>
+                  <c:v>Popular ( &gt;= 5 RT )</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>All</c:v>
@@ -733,10 +733,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>73.0</c:v>
+                  <c:v>7262.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7262.0</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7335.0</c:v>
@@ -755,11 +755,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-2121581888"/>
-        <c:axId val="-2121578960"/>
+        <c:axId val="-2056430800"/>
+        <c:axId val="-2056427872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2121581888"/>
+        <c:axId val="-2056430800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121578960"/>
+        <c:crossAx val="-2056427872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -810,7 +810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121578960"/>
+        <c:axId val="-2056427872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121581888"/>
+        <c:crossAx val="-2056430800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1366,7 +1366,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0455028726338259"/>
+          <c:y val="0.127280701754386"/>
+          <c:w val="0.927611391742574"/>
+          <c:h val="0.706081410876272"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="percentStacked"/>
@@ -1430,23 +1440,67 @@
               <c:layout/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                         <a:effectLst/>
                       </a:rPr>
-                      <a:t>36.52%</a:t>
+                      <a:t>16.86%</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" b="1"/>
+                    <a:endParaRPr lang="en-US" sz="1600" b="1"/>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1464,23 +1518,67 @@
               <c:layout/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                         <a:effectLst/>
                       </a:rPr>
-                      <a:t>16.86%</a:t>
+                      <a:t>36.52%</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" b="1"/>
+                    <a:endParaRPr lang="en-US" sz="1800" b="1"/>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1507,7 +1605,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="7700" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1555,10 +1653,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Popular ( &gt;= 5 RT )</c:v>
+                  <c:v>Baseline ( &lt; 5 RT )</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Baseline ( &lt; 5 RT )</c:v>
+                  <c:v>Popular ( &gt;= 5 RT )</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1570,10 +1668,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>42.0</c:v>
+                  <c:v>1473.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1473.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1643,7 +1741,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>63.48%</a:t>
+                      <a:t>83.14%</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -1670,7 +1768,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>83.14%</a:t>
+                      <a:t>63.48%</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -1701,7 +1799,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1749,10 +1847,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Popular ( &gt;= 5 RT )</c:v>
+                  <c:v>Baseline ( &lt; 5 RT )</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Baseline ( &lt; 5 RT )</c:v>
+                  <c:v>Popular ( &gt;= 5 RT )</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1764,10 +1862,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>73.0</c:v>
+                  <c:v>7262.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7262.0</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1783,11 +1881,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-2043402752"/>
-        <c:axId val="-2043124064"/>
+        <c:axId val="-2037035024"/>
+        <c:axId val="-2037032096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2043402752"/>
+        <c:axId val="-2037035024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1815,7 +1913,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1830,7 +1928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2043124064"/>
+        <c:crossAx val="-2037032096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1838,7 +1936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2043124064"/>
+        <c:axId val="-2037032096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,7 +1973,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2043402752"/>
+        <c:crossAx val="-2037035024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1889,7 +1987,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.120958642305634"/>
+          <c:y val="0.906669659713589"/>
+          <c:w val="0.767044509652873"/>
+          <c:h val="0.0728625040291016"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1903,7 +2010,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4043,13 +4150,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="37.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4120,10 +4228,10 @@
         <v>0.13410839999999999</v>
       </c>
       <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
         <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -4143,10 +4251,10 @@
         <v>22</v>
       </c>
       <c r="H8">
+        <v>1473</v>
+      </c>
+      <c r="I8">
         <v>42</v>
-      </c>
-      <c r="I8">
-        <v>1473</v>
       </c>
       <c r="J8">
         <v>1515</v>
@@ -4173,10 +4281,10 @@
         <v>17</v>
       </c>
       <c r="H9">
+        <v>7262</v>
+      </c>
+      <c r="I9">
         <v>73</v>
-      </c>
-      <c r="I9">
-        <v>7262</v>
       </c>
       <c r="J9">
         <v>7335</v>
@@ -4202,10 +4310,10 @@
         <v>16</v>
       </c>
       <c r="H10">
+        <v>8735</v>
+      </c>
+      <c r="I10">
         <v>115</v>
-      </c>
-      <c r="I10">
-        <v>8735</v>
       </c>
       <c r="J10">
         <v>8850</v>
@@ -4225,10 +4333,10 @@
         <v>15</v>
       </c>
       <c r="H11" s="1">
+        <v>0.1686319</v>
+      </c>
+      <c r="I11" s="1">
         <v>0.36521740000000003</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.1686319</v>
       </c>
       <c r="J11" s="1">
         <v>0.17118639999999999</v>

--- a/twitter_data/MediaAnalysisCharts.xlsx
+++ b/twitter_data/MediaAnalysisCharts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="35320" windowHeight="19740" tabRatio="500"/>
+    <workbookView xWindow="9680" yWindow="4060" windowWidth="19120" windowHeight="10340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4150,7 +4150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
